--- a/experiment/200_DACO.xlsx
+++ b/experiment/200_DACO.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>tr</t>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>rd</t>
   </si>
   <si>
     <t>obj</t>
